--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128FF4D3-939F-4E6D-A64D-87B85F60A3B4}" xr6:coauthVersionLast="20" xr6:coauthVersionMax="20" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Documents\GitHub\CarThing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Sistemas Operativos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Base de datos</t>
-  </si>
-  <si>
-    <t>Análisis y Diseño de Aplicaciones</t>
   </si>
   <si>
     <t>Proyecto</t>
@@ -32,14 +31,35 @@
     <t>Programación</t>
   </si>
   <si>
-    <t>Nº de Semana</t>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Análisis y diseño de aplicaciones</t>
+  </si>
+  <si>
+    <t>Formación empresarial</t>
+  </si>
+  <si>
+    <t>Taller de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Sistemas operativos</t>
+  </si>
+  <si>
+    <t>Comienzo</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Duracion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,45 +68,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DB3E2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DDE8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7E3BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD5B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDD9C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,91 +84,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,6 +106,1043 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comienzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y diseño de aplicaciones</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formación empresarial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Programación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Taller de Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sistemas operativos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E34F-4186-B80C-440425981EE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duracion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y diseño de aplicaciones</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formación empresarial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Programación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Taller de Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sistemas operativos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E34F-4186-B80C-440425981EE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Análisis y diseño de aplicaciones</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formación empresarial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Base de datos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Programación</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Taller de Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sistemas operativos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E34F-4186-B80C-440425981EE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="909886847"/>
+        <c:axId val="909887679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="909886847"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="909887679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="909887679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="909886847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,123 +1431,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>E3-C3</f>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">E4-C4</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>